--- a/TestDataAndResults/Run1/SophieAutomation.xlsx
+++ b/TestDataAndResults/Run1/SophieAutomation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2060,9 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -2079,7 +2084,9 @@
         <v>3000</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -2101,7 +2108,9 @@
         <v>63</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -2123,7 +2132,9 @@
         <v>67</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
@@ -2145,7 +2156,9 @@
         <v>5000</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
@@ -2165,7 +2178,9 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
@@ -2187,7 +2202,9 @@
         <v>75</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
@@ -2209,7 +2226,9 @@
         <v>79</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
@@ -2229,7 +2248,9 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
@@ -2251,7 +2272,9 @@
         <v>3000</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
@@ -2271,7 +2294,9 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
@@ -2291,7 +2316,9 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
@@ -2311,7 +2338,9 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
@@ -2331,7 +2360,9 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
@@ -2351,7 +2382,9 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
@@ -2371,7 +2404,9 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
@@ -2391,7 +2426,9 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
@@ -2411,7 +2448,9 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
@@ -2433,7 +2472,9 @@
         <v>3000</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
@@ -2453,7 +2494,9 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
@@ -2475,7 +2518,9 @@
         <v>3000</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
@@ -2495,7 +2540,9 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
@@ -2517,7 +2564,9 @@
         <v>3000</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
@@ -2537,7 +2586,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
@@ -2557,7 +2608,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
@@ -2579,7 +2632,9 @@
         <v>20000</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
@@ -2599,7 +2654,9 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
@@ -2621,7 +2678,9 @@
         <v>7000</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
@@ -2641,7 +2700,9 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
@@ -2661,7 +2722,9 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
@@ -2681,7 +2744,9 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
@@ -2703,7 +2768,9 @@
         <v>10000</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
@@ -2723,7 +2790,9 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
@@ -2743,7 +2812,9 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
@@ -2765,7 +2836,9 @@
         <v>30000</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
@@ -2785,7 +2858,9 @@
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2897,7 +2972,9 @@
         <v>37</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -2919,7 +2996,9 @@
         <v>37</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -2941,7 +3020,9 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -7630,6 +7711,9 @@
       <c r="E5" s="18" t="s">
         <v>274</v>
       </c>
+      <c r="F5" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -7646,6 +7730,9 @@
       </c>
       <c r="E6" s="18" t="s">
         <v>274</v>
+      </c>
+      <c r="F6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:8">
